--- a/resource/treasury.xlsx
+++ b/resource/treasury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,17 +503,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>3.7</v>
       </c>
       <c r="C2" t="n">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="E2" t="n">
         <v>3.56</v>
@@ -522,308 +522,308 @@
         <v>3.48</v>
       </c>
       <c r="G2" t="n">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="H2" t="n">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="I2" t="n">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="J2" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="L2" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="M2" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>3.7</v>
       </c>
       <c r="C3" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="E3" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="F3" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="G3" t="n">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
       <c r="H3" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="I3" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="K3" t="n">
-        <v>4.14</v>
+        <v>4.15</v>
       </c>
       <c r="L3" t="n">
         <v>4.76</v>
       </c>
       <c r="M3" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="C4" t="n">
-        <v>3.74</v>
+        <v>3.61</v>
       </c>
       <c r="D4" t="n">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="E4" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="G4" t="n">
         <v>3.47</v>
       </c>
       <c r="H4" t="n">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="J4" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="K4" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M4" t="n">
-        <v>4.79</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="C5" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="D5" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="E5" t="n">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="F5" t="n">
-        <v>3.52</v>
+        <v>3.49</v>
       </c>
       <c r="G5" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="H5" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="I5" t="n">
-        <v>3.72</v>
+        <v>3.68</v>
       </c>
       <c r="J5" t="n">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
       <c r="K5" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="L5" t="n">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="M5" t="n">
-        <v>4.83</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>3.72</v>
       </c>
       <c r="C6" t="n">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="D6" t="n">
-        <v>3.64</v>
+        <v>3.69</v>
       </c>
       <c r="E6" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="F6" t="n">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="H6" t="n">
         <v>3.56</v>
       </c>
       <c r="I6" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="K6" t="n">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="L6" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>4.84</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-19</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>3.71</v>
       </c>
       <c r="C7" t="n">
-        <v>3.72</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="E7" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="F7" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="G7" t="n">
         <v>3.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="K7" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="L7" t="n">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="M7" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-18</t>
+          <t>2025-12-22</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C8" t="n">
         <v>3.71</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.72</v>
-      </c>
       <c r="D8" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="E8" t="n">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="F8" t="n">
-        <v>3.49</v>
+        <v>3.53</v>
       </c>
       <c r="G8" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="I8" t="n">
-        <v>3.66</v>
+        <v>3.71</v>
       </c>
       <c r="J8" t="n">
-        <v>3.87</v>
+        <v>3.93</v>
       </c>
       <c r="K8" t="n">
-        <v>4.12</v>
+        <v>4.17</v>
       </c>
       <c r="L8" t="n">
-        <v>4.74</v>
+        <v>4.78</v>
       </c>
       <c r="M8" t="n">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-17</t>
+          <t>2025-12-19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="C9" t="n">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="D9" t="n">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="E9" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="F9" t="n">
         <v>3.51</v>
       </c>
       <c r="G9" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="H9" t="n">
         <v>3.53</v>
@@ -838,649 +838,649 @@
         <v>4.16</v>
       </c>
       <c r="L9" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="M9" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.76</v>
+        <v>3.71</v>
       </c>
       <c r="C10" t="n">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="D10" t="n">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="E10" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="F10" t="n">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="G10" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.69</v>
+        <v>3.66</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.87</v>
       </c>
       <c r="K10" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="L10" t="n">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="M10" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-15</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.77</v>
+        <v>3.73</v>
       </c>
       <c r="C11" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="D11" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="E11" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="F11" t="n">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="G11" t="n">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="H11" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="I11" t="n">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.94</v>
+        <v>3.91</v>
       </c>
       <c r="K11" t="n">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="L11" t="n">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="M11" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>3.76</v>
       </c>
       <c r="C12" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="D12" t="n">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="E12" t="n">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="F12" t="n">
-        <v>3.54</v>
+        <v>3.51</v>
       </c>
       <c r="G12" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.52</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.58</v>
-      </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4.19</v>
+        <v>4.15</v>
       </c>
       <c r="L12" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="M12" t="n">
         <v>4.82</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-12-15</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>3.77</v>
       </c>
       <c r="C13" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="D13" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="E13" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="F13" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.56</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.55</v>
-      </c>
       <c r="I13" t="n">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="J13" t="n">
-        <v>3.91</v>
+        <v>3.94</v>
       </c>
       <c r="K13" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M13" t="n">
-        <v>4.79</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="C14" t="n">
         <v>3.75</v>
       </c>
       <c r="D14" t="n">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="E14" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
       <c r="F14" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.58</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.56</v>
-      </c>
       <c r="I14" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>4.13</v>
+        <v>4.19</v>
       </c>
       <c r="L14" t="n">
-        <v>4.74</v>
+        <v>4.82</v>
       </c>
       <c r="M14" t="n">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-09</t>
+          <t>2025-12-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="C15" t="n">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
       <c r="D15" t="n">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="E15" t="n">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="F15" t="n">
-        <v>3.63</v>
+        <v>3.56</v>
       </c>
       <c r="G15" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="J15" t="n">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="K15" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="L15" t="n">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-08</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.82</v>
+        <v>3.79</v>
       </c>
       <c r="C16" t="n">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="D16" t="n">
-        <v>3.73</v>
+        <v>3.69</v>
       </c>
       <c r="E16" t="n">
-        <v>3.69</v>
+        <v>3.66</v>
       </c>
       <c r="F16" t="n">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="G16" t="n">
-        <v>3.57</v>
+        <v>3.54</v>
       </c>
       <c r="H16" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="J16" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="K16" t="n">
-        <v>4.17</v>
+        <v>4.13</v>
       </c>
       <c r="L16" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M16" t="n">
         <v>4.78</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-05</t>
+          <t>2025-12-09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.82</v>
+        <v>3.81</v>
       </c>
       <c r="C17" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="D17" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="E17" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="F17" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.61</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.56</v>
-      </c>
       <c r="H17" t="n">
-        <v>3.59</v>
+        <v>3.62</v>
       </c>
       <c r="I17" t="n">
-        <v>3.72</v>
+        <v>3.78</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="K17" t="n">
-        <v>4.14</v>
+        <v>4.18</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
       <c r="M17" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-04</t>
+          <t>2025-12-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="C18" t="n">
         <v>3.78</v>
       </c>
       <c r="D18" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="E18" t="n">
         <v>3.69</v>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="G18" t="n">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="I18" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.87</v>
+        <v>3.94</v>
       </c>
       <c r="K18" t="n">
-        <v>4.11</v>
+        <v>4.17</v>
       </c>
       <c r="L18" t="n">
-        <v>4.72</v>
+        <v>4.78</v>
       </c>
       <c r="M18" t="n">
-        <v>4.76</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-03</t>
+          <t>2025-12-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="C19" t="n">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="D19" t="n">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E19" t="n">
         <v>3.68</v>
       </c>
       <c r="F19" t="n">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="G19" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="I19" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="J19" t="n">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>4.06</v>
+        <v>4.14</v>
       </c>
       <c r="L19" t="n">
-        <v>4.68</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>4.73</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.9</v>
+        <v>3.83</v>
       </c>
       <c r="C20" t="n">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="D20" t="n">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="E20" t="n">
-        <v>3.72</v>
+        <v>3.69</v>
       </c>
       <c r="F20" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="H20" t="n">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="K20" t="n">
-        <v>4.09</v>
+        <v>4.11</v>
       </c>
       <c r="L20" t="n">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="M20" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-01</t>
+          <t>2025-12-03</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.98</v>
+        <v>3.83</v>
       </c>
       <c r="C21" t="n">
-        <v>3.92</v>
+        <v>3.78</v>
       </c>
       <c r="D21" t="n">
-        <v>3.81</v>
+        <v>3.72</v>
       </c>
       <c r="E21" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="F21" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.62</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.67</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="K21" t="n">
-        <v>4.09</v>
+        <v>4.06</v>
       </c>
       <c r="L21" t="n">
-        <v>4.71</v>
+        <v>4.68</v>
       </c>
       <c r="M21" t="n">
-        <v>4.74</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="C22" t="n">
-        <v>3.99</v>
+        <v>3.83</v>
       </c>
       <c r="D22" t="n">
-        <v>3.88</v>
+        <v>3.77</v>
       </c>
       <c r="E22" t="n">
-        <v>3.74</v>
+        <v>3.72</v>
       </c>
       <c r="F22" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="G22" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="H22" t="n">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="I22" t="n">
-        <v>3.59</v>
+        <v>3.66</v>
       </c>
       <c r="J22" t="n">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.02</v>
+        <v>4.09</v>
       </c>
       <c r="L22" t="n">
-        <v>4.62</v>
+        <v>4.7</v>
       </c>
       <c r="M22" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-11-26</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.06</v>
+        <v>3.98</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="D23" t="n">
-        <v>3.92</v>
+        <v>3.81</v>
       </c>
       <c r="E23" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="F23" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.86</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>4.09</v>
       </c>
       <c r="L23" t="n">
-        <v>4.6</v>
+        <v>4.71</v>
       </c>
       <c r="M23" t="n">
-        <v>4.64</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="D24" t="n">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="E24" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F24" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="G24" t="n">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="H24" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="J24" t="n">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="K24" t="n">
-        <v>4.01</v>
+        <v>4.02</v>
       </c>
       <c r="L24" t="n">
         <v>4.62</v>
@@ -1492,17 +1492,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-11-24</t>
+          <t>2025-11-26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="C25" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="E25" t="n">
         <v>3.76</v>
@@ -1511,38 +1511,38 @@
         <v>3.61</v>
       </c>
       <c r="G25" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="I25" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M25" t="n">
         <v>4.64</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4.68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-21</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="D26" t="n">
         <v>3.9</v>
@@ -1551,127 +1551,127 @@
         <v>3.75</v>
       </c>
       <c r="F26" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>3.51</v>
+        <v>3.43</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="I26" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
-        <v>3.82</v>
+        <v>3.77</v>
       </c>
       <c r="K26" t="n">
-        <v>4.06</v>
+        <v>4.01</v>
       </c>
       <c r="L26" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M26" t="n">
         <v>4.67</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-24</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.04</v>
       </c>
-      <c r="C27" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L27" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="M27" t="n">
         <v>4.68</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4.73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-11-19</t>
+          <t>2025-11-21</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="E28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="F28" t="n">
-        <v>3.68</v>
+        <v>3.62</v>
       </c>
       <c r="G28" t="n">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
       <c r="H28" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>3.71</v>
+        <v>3.62</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="K28" t="n">
-        <v>4.13</v>
+        <v>4.06</v>
       </c>
       <c r="L28" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="M28" t="n">
         <v>4.71</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="C29" t="n">
         <v>4.02</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.99</v>
       </c>
       <c r="D29" t="n">
         <v>3.94</v>
@@ -1680,59 +1680,59 @@
         <v>3.79</v>
       </c>
       <c r="F29" t="n">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="G29" t="n">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I29" t="n">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="J29" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="K29" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>4.72</v>
+        <v>4.68</v>
       </c>
       <c r="M29" t="n">
-        <v>4.74</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="C30" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="E30" t="n">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="F30" t="n">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="I30" t="n">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="J30" t="n">
         <v>3.9</v>
@@ -1744,47 +1744,47 @@
         <v>4.71</v>
       </c>
       <c r="M30" t="n">
-        <v>4.73</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="C31" t="n">
-        <v>4.01</v>
+        <v>3.99</v>
       </c>
       <c r="D31" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="E31" t="n">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="F31" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.7</v>
       </c>
-      <c r="G31" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.74</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.92</v>
+        <v>3.89</v>
       </c>
       <c r="K31" t="n">
-        <v>4.14</v>
+        <v>4.12</v>
       </c>
       <c r="L31" t="n">
-        <v>4.73</v>
+        <v>4.72</v>
       </c>
       <c r="M31" t="n">
         <v>4.74</v>
@@ -1793,382 +1793,382 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="D32" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="E32" t="n">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="F32" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G32" t="n">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="J32" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="L32" t="n">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
       <c r="M32" t="n">
-        <v>4.7</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C33" t="n">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="D33" t="n">
         <v>3.95</v>
       </c>
       <c r="E33" t="n">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="F33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G33" t="n">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="I33" t="n">
-        <v>3.68</v>
+        <v>3.74</v>
       </c>
       <c r="J33" t="n">
-        <v>3.86</v>
+        <v>3.92</v>
       </c>
       <c r="K33" t="n">
-        <v>4.08</v>
+        <v>4.14</v>
       </c>
       <c r="L33" t="n">
-        <v>4.65</v>
+        <v>4.73</v>
       </c>
       <c r="M33" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.04</v>
+        <v>4.05</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="E34" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="F34" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="G34" t="n">
         <v>3.58</v>
       </c>
       <c r="H34" t="n">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="I34" t="n">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="J34" t="n">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="K34" t="n">
-        <v>4.13</v>
+        <v>4.11</v>
       </c>
       <c r="L34" t="n">
         <v>4.69</v>
       </c>
       <c r="M34" t="n">
-        <v>4.71</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
       <c r="C35" t="n">
         <v>3.98</v>
       </c>
       <c r="D35" t="n">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="E35" t="n">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="F35" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.55</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.57</v>
-      </c>
       <c r="I35" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="J35" t="n">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="K35" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="L35" t="n">
-        <v>4.68</v>
+        <v>4.65</v>
       </c>
       <c r="M35" t="n">
-        <v>4.7</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="C36" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="E36" t="n">
-        <v>3.76</v>
+        <v>3.79</v>
       </c>
       <c r="F36" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="G36" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="H36" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I36" t="n">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="J36" t="n">
-        <v>3.87</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="L36" t="n">
-        <v>4.67</v>
+        <v>4.69</v>
       </c>
       <c r="M36" t="n">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="D37" t="n">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
       <c r="E37" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="F37" t="n">
-        <v>3.71</v>
+        <v>3.63</v>
       </c>
       <c r="G37" t="n">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.65</v>
+        <v>3.57</v>
       </c>
       <c r="I37" t="n">
-        <v>3.76</v>
+        <v>3.67</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>3.87</v>
       </c>
       <c r="K37" t="n">
-        <v>4.17</v>
+        <v>4.11</v>
       </c>
       <c r="L37" t="n">
-        <v>4.72</v>
+        <v>4.68</v>
       </c>
       <c r="M37" t="n">
-        <v>4.74</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>4.02</v>
       </c>
       <c r="C38" t="n">
-        <v>4.01</v>
+        <v>3.98</v>
       </c>
       <c r="D38" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="E38" t="n">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
       <c r="F38" t="n">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="G38" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.58</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.59</v>
       </c>
       <c r="I38" t="n">
         <v>3.69</v>
       </c>
       <c r="J38" t="n">
-        <v>3.88</v>
+        <v>3.87</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="L38" t="n">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="M38" t="n">
-        <v>4.67</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.06</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="E39" t="n">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="F39" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="H39" t="n">
-        <v>3.61</v>
+        <v>3.65</v>
       </c>
       <c r="I39" t="n">
-        <v>3.72</v>
+        <v>3.76</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="L39" t="n">
-        <v>4.67</v>
+        <v>4.72</v>
       </c>
       <c r="M39" t="n">
-        <v>4.69</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.06</v>
+        <v>4.02</v>
       </c>
       <c r="C40" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="D40" t="n">
-        <v>3.89</v>
+        <v>3.96</v>
       </c>
       <c r="E40" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="F40" t="n">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="I40" t="n">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="J40" t="n">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="K40" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
         <v>4.65</v>
@@ -2180,26 +2180,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="C41" t="n">
         <v>4.05</v>
       </c>
-      <c r="C41" t="n">
-        <v>4.04</v>
-      </c>
       <c r="D41" t="n">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="E41" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="F41" t="n">
         <v>3.7</v>
       </c>
       <c r="G41" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
         <v>3.61</v>
@@ -2211,29 +2211,29 @@
         <v>3.9</v>
       </c>
       <c r="K41" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="L41" t="n">
-        <v>4.64</v>
+        <v>4.67</v>
       </c>
       <c r="M41" t="n">
-        <v>4.65</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.03</v>
+        <v>4.06</v>
       </c>
       <c r="C42" t="n">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="D42" t="n">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="E42" t="n">
         <v>3.79</v>
@@ -2242,173 +2242,173 @@
         <v>3.7</v>
       </c>
       <c r="G42" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="J42" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="K42" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="L42" t="n">
-        <v>4.59</v>
+        <v>4.65</v>
       </c>
       <c r="M42" t="n">
-        <v>4.61</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.07</v>
+        <v>4.05</v>
       </c>
       <c r="C43" t="n">
-        <v>3.97</v>
+        <v>4.04</v>
       </c>
       <c r="D43" t="n">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="E43" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I43" t="n">
         <v>3.72</v>
       </c>
-      <c r="F43" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J43" t="n">
-        <v>3.77</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>3.99</v>
+        <v>4.11</v>
       </c>
       <c r="L43" t="n">
-        <v>4.53</v>
+        <v>4.64</v>
       </c>
       <c r="M43" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.09</v>
+        <v>4.03</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="D44" t="n">
-        <v>3.89</v>
+        <v>3.93</v>
       </c>
       <c r="E44" t="n">
-        <v>3.73</v>
+        <v>3.79</v>
       </c>
       <c r="F44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G44" t="n">
         <v>3.59</v>
       </c>
-      <c r="G44" t="n">
-        <v>3.48</v>
-      </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.79</v>
+        <v>3.87</v>
       </c>
       <c r="K44" t="n">
-        <v>4.01</v>
+        <v>4.08</v>
       </c>
       <c r="L44" t="n">
-        <v>4.55</v>
+        <v>4.59</v>
       </c>
       <c r="M44" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.11</v>
+        <v>4.07</v>
       </c>
       <c r="C45" t="n">
-        <v>4.02</v>
+        <v>3.97</v>
       </c>
       <c r="D45" t="n">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="E45" t="n">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="F45" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="G45" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="H45" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
       <c r="K45" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="L45" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="M45" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="C46" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="E46" t="n">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="F46" t="n">
         <v>3.59</v>
@@ -2417,7 +2417,7 @@
         <v>3.48</v>
       </c>
       <c r="H46" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
         <v>3.61</v>
@@ -2432,56 +2432,56 @@
         <v>4.55</v>
       </c>
       <c r="M46" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>4.11</v>
       </c>
       <c r="C47" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="D47" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="E47" t="n">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
       <c r="F47" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="G47" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="H47" t="n">
-        <v>3.44</v>
+        <v>3.49</v>
       </c>
       <c r="I47" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="J47" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="K47" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="L47" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="M47" t="n">
-        <v>4.54</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2491,50 +2491,50 @@
         <v>4.05</v>
       </c>
       <c r="D48" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="E48" t="n">
         <v>3.78</v>
       </c>
       <c r="F48" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="G48" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="H48" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="I48" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="J48" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="K48" t="n">
-        <v>3.98</v>
+        <v>4.01</v>
       </c>
       <c r="L48" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="M48" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="C49" t="n">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="D49" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="E49" t="n">
         <v>3.78</v>
@@ -2543,105 +2543,105 @@
         <v>3.55</v>
       </c>
       <c r="G49" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="H49" t="n">
-        <v>3.47</v>
+        <v>3.44</v>
       </c>
       <c r="I49" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="J49" t="n">
-        <v>3.77</v>
+        <v>3.74</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="L49" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="M49" t="n">
-        <v>4.58</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
       <c r="C50" t="n">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="E50" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="F50" t="n">
         <v>3.56</v>
       </c>
       <c r="G50" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.46</v>
       </c>
-      <c r="H50" t="n">
-        <v>3.47</v>
-      </c>
       <c r="I50" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="J50" t="n">
-        <v>3.78</v>
+        <v>3.74</v>
       </c>
       <c r="K50" t="n">
-        <v>4.02</v>
+        <v>3.98</v>
       </c>
       <c r="L50" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="M50" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="C51" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="D51" t="n">
-        <v>4.02</v>
+        <v>3.97</v>
       </c>
       <c r="E51" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
       <c r="F51" t="n">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="G51" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="H51" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="I51" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="J51" t="n">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="K51" t="n">
-        <v>3.99</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>4.56</v>
@@ -2653,250 +2653,250 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.2</v>
+        <v>4.18</v>
       </c>
       <c r="C52" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="D52" t="n">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>3.82</v>
+        <v>3.79</v>
       </c>
       <c r="F52" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="H52" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="I52" t="n">
-        <v>3.63</v>
+        <v>3.59</v>
       </c>
       <c r="J52" t="n">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="K52" t="n">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="L52" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="M52" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="C53" t="n">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="D53" t="n">
         <v>4.02</v>
       </c>
       <c r="E53" t="n">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="F53" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="G53" t="n">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="H53" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="I53" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J53" t="n">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="K53" t="n">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="L53" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="M53" t="n">
-        <v>4.62</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.19</v>
+        <v>4.2</v>
       </c>
       <c r="C54" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="D54" t="n">
-        <v>4.02</v>
+        <v>4.03</v>
       </c>
       <c r="E54" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="F54" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="G54" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="I54" t="n">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="J54" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="K54" t="n">
         <v>4.05</v>
       </c>
       <c r="L54" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="M54" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="C55" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="D55" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="K55" t="n">
         <v>4.03</v>
       </c>
-      <c r="E55" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4.14</v>
-      </c>
       <c r="L55" t="n">
-        <v>4.7</v>
+        <v>4.59</v>
       </c>
       <c r="M55" t="n">
-        <v>4.72</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="C56" t="n">
-        <v>4.09</v>
+        <v>4.1</v>
       </c>
       <c r="D56" t="n">
-        <v>4.01</v>
+        <v>4.02</v>
       </c>
       <c r="E56" t="n">
-        <v>3.82</v>
+        <v>3.81</v>
       </c>
       <c r="F56" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="G56" t="n">
-        <v>3.58</v>
+        <v>3.52</v>
       </c>
       <c r="H56" t="n">
-        <v>3.58</v>
+        <v>3.52</v>
       </c>
       <c r="I56" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="J56" t="n">
-        <v>3.91</v>
+        <v>3.83</v>
       </c>
       <c r="K56" t="n">
-        <v>4.13</v>
+        <v>4.05</v>
       </c>
       <c r="L56" t="n">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="M56" t="n">
-        <v>4.72</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>4.2</v>
       </c>
       <c r="C57" t="n">
-        <v>4.1</v>
+        <v>4.11</v>
       </c>
       <c r="D57" t="n">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
       <c r="E57" t="n">
-        <v>3.81</v>
+        <v>3.83</v>
       </c>
       <c r="F57" t="n">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="G57" t="n">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="I57" t="n">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="J57" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="K57" t="n">
         <v>4.14</v>
@@ -2905,103 +2905,103 @@
         <v>4.7</v>
       </c>
       <c r="M57" t="n">
-        <v>4.73</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="C58" t="n">
-        <v>4.11</v>
+        <v>4.09</v>
       </c>
       <c r="D58" t="n">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
       <c r="E58" t="n">
-        <v>3.81</v>
+        <v>3.82</v>
       </c>
       <c r="F58" t="n">
         <v>3.66</v>
       </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="H58" t="n">
-        <v>3.63</v>
+        <v>3.58</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="J58" t="n">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="K58" t="n">
-        <v>4.18</v>
+        <v>4.13</v>
       </c>
       <c r="L58" t="n">
-        <v>4.73</v>
+        <v>4.69</v>
       </c>
       <c r="M58" t="n">
-        <v>4.76</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="C59" t="n">
-        <v>4.11</v>
+        <v>4.1</v>
       </c>
       <c r="D59" t="n">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="E59" t="n">
-        <v>3.82</v>
+        <v>3.81</v>
       </c>
       <c r="F59" t="n">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="G59" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="H59" t="n">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="I59" t="n">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="J59" t="n">
         <v>3.9</v>
       </c>
       <c r="K59" t="n">
-        <v>4.13</v>
+        <v>4.14</v>
       </c>
       <c r="L59" t="n">
-        <v>4.69</v>
+        <v>4.7</v>
       </c>
       <c r="M59" t="n">
-        <v>4.71</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.23</v>
+        <v>4.22</v>
       </c>
       <c r="C60" t="n">
         <v>4.11</v>
@@ -3013,170 +3013,170 @@
         <v>3.81</v>
       </c>
       <c r="F60" t="n">
-        <v>3.62</v>
+        <v>3.66</v>
       </c>
       <c r="G60" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
-        <v>3.56</v>
+        <v>3.63</v>
       </c>
       <c r="I60" t="n">
-        <v>3.67</v>
+        <v>3.75</v>
       </c>
       <c r="J60" t="n">
-        <v>3.86</v>
+        <v>3.95</v>
       </c>
       <c r="K60" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="L60" t="n">
-        <v>4.66</v>
+        <v>4.73</v>
       </c>
       <c r="M60" t="n">
-        <v>4.69</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.17</v>
+        <v>4.24</v>
       </c>
       <c r="C61" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="D61" t="n">
-        <v>4.01</v>
+        <v>4.03</v>
       </c>
       <c r="E61" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="F61" t="n">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="G61" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="H61" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="I61" t="n">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="J61" t="n">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="K61" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="L61" t="n">
         <v>4.69</v>
       </c>
       <c r="M61" t="n">
-        <v>4.72</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="C62" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="D62" t="n">
         <v>4.02</v>
       </c>
       <c r="E62" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="F62" t="n">
-        <v>3.68</v>
+        <v>3.62</v>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H62" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="I62" t="n">
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
       <c r="J62" t="n">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="K62" t="n">
-        <v>4.16</v>
+        <v>4.1</v>
       </c>
       <c r="L62" t="n">
-        <v>4.71</v>
+        <v>4.66</v>
       </c>
       <c r="M62" t="n">
-        <v>4.73</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.22</v>
+        <v>4.17</v>
       </c>
       <c r="C63" t="n">
-        <v>4.16</v>
+        <v>4.12</v>
       </c>
       <c r="D63" t="n">
-        <v>4.04</v>
+        <v>4.01</v>
       </c>
       <c r="E63" t="n">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="F63" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="G63" t="n">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="H63" t="n">
-        <v>3.63</v>
+        <v>3.56</v>
       </c>
       <c r="I63" t="n">
-        <v>3.74</v>
+        <v>3.68</v>
       </c>
       <c r="J63" t="n">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="K63" t="n">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="L63" t="n">
         <v>4.69</v>
       </c>
       <c r="M63" t="n">
-        <v>4.71</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="C64" t="n">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="D64" t="n">
         <v>4.02</v>
@@ -3185,113 +3185,199 @@
         <v>3.83</v>
       </c>
       <c r="F64" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="G64" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="I64" t="n">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="J64" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="K64" t="n">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="L64" t="n">
-        <v>4.74</v>
+        <v>4.71</v>
       </c>
       <c r="M64" t="n">
-        <v>4.77</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="C65" t="n">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="D65" t="n">
         <v>4.04</v>
       </c>
       <c r="E65" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="F65" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="G65" t="n">
-        <v>3.64</v>
+        <v>3.63</v>
       </c>
       <c r="H65" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="I65" t="n">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="J65" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="K65" t="n">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="L65" t="n">
-        <v>4.73</v>
+        <v>4.69</v>
       </c>
       <c r="M65" t="n">
-        <v>4.75</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.18</v>
+        <v>4.22</v>
       </c>
       <c r="C66" t="n">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="D66" t="n">
         <v>4.02</v>
       </c>
       <c r="E66" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E68" t="n">
         <v>3.82</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F68" t="n">
         <v>3.63</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G68" t="n">
         <v>3.57</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H68" t="n">
         <v>3.6</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I68" t="n">
         <v>3.7</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J68" t="n">
         <v>3.91</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K68" t="n">
         <v>4.16</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L68" t="n">
         <v>4.73</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M68" t="n">
         <v>4.76</v>
       </c>
     </row>
